--- a/Default.xlsx
+++ b/Default.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>bob</t>
+  </si>
   <si>
     <t>john</t>
   </si>
@@ -524,7 +527,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -538,10 +541,34 @@
   <sheetData>
     <row customFormat="1">
       <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row>
+      <c s="2" t="s">
+        <v>1</v>
+      </c>
+      <c s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row>
+      <c s="2" t="s">
+        <v>1</v>
+      </c>
+      <c s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row>
+      <c s="2" t="s">
         <v>2</v>
       </c>
-      <c t="s">
-        <v>5</v>
+      <c s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row>
@@ -549,31 +576,7 @@
         <v>0</v>
       </c>
       <c s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>0</v>
-      </c>
-      <c s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>1</v>
-      </c>
-      <c s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>0</v>
-      </c>
-      <c s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
